--- a/example notebooks/Example publication - integrated modelling/data/ODYM_database/3_PR_factor_price_v1.xlsx
+++ b/example notebooks/Example publication - integrated modelling/data/ODYM_database/3_PR_factor_price_v1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{9CD46C31-7429-4A3C-B5C2-7496471EFF2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7D8FE02-706D-405B-BECF-7D960D6EDA8C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E91FC0-F0CD-4E06-8572-FD16AE3F0FEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -369,9 +369,6 @@
     <t>Regions</t>
   </si>
   <si>
-    <t>productionf actor value</t>
-  </si>
-  <si>
     <t>AT</t>
   </si>
   <si>
@@ -490,6 +487,9 @@
   </si>
   <si>
     <t>European average</t>
+  </si>
+  <si>
+    <t>Price for one unit of production factor</t>
   </si>
 </sst>
 </file>
@@ -1164,8 +1164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1184,7 +1184,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>23</v>
@@ -1228,7 +1228,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>23</v>
@@ -1243,7 +1243,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>23</v>
@@ -1346,7 +1346,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="3">
-        <v>44255</v>
+        <v>44714</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>23</v>
@@ -1391,7 +1391,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>23</v>
@@ -1495,7 +1495,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>106</v>
@@ -1504,13 +1504,13 @@
         <v>109</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E23" s="14" t="s">
         <v>49</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="G23" s="19" t="s">
         <v>23</v>
@@ -1529,7 +1529,7 @@
         <v>50</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G24" s="19" t="s">
         <v>23</v>
@@ -1664,7 +1664,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BDDE9FA-34B5-487F-BD06-B5E05371CD58}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -1681,28 +1681,28 @@
   <sheetData>
     <row r="1" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="C1" s="27" t="s">
-        <v>121</v>
-      </c>
       <c r="D1" s="27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E1" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="F1" s="27" t="s">
-        <v>133</v>
-      </c>
       <c r="G1" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="H1" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="H1" s="27" t="s">
-        <v>140</v>
-      </c>
       <c r="I1" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
@@ -1761,7 +1761,7 @@
         <v>33.769649999999999</v>
       </c>
       <c r="I3" s="29">
-        <f t="shared" ref="I3:I4" si="0">AVERAGE(B3:H3)</f>
+        <f t="shared" ref="I3" si="0">AVERAGE(B3:H3)</f>
         <v>35.19153</v>
       </c>
     </row>
@@ -1871,7 +1871,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B2" s="27">
         <v>2306.7516046213095</v>
@@ -1885,7 +1885,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B3" s="27">
         <v>2045.990372272144</v>
@@ -1899,7 +1899,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B4" s="27">
         <v>1115.6822849807445</v>
@@ -1913,7 +1913,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B5" s="27">
         <v>1260.2695763799745</v>
@@ -1927,7 +1927,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B6" s="27">
         <v>1381.4845956354302</v>
@@ -1941,7 +1941,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B7" s="27">
         <v>1400.2740693196406</v>
@@ -1955,7 +1955,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B8" s="27">
         <v>3331.2362002567393</v>
@@ -1969,7 +1969,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B9" s="27">
         <v>1359.4871630295249</v>
@@ -1983,7 +1983,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B10" s="28">
         <v>1799.5094672657256</v>
@@ -1997,7 +1997,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B11" s="27">
         <v>2613.1116816431322</v>
@@ -2011,7 +2011,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B12" s="27">
         <v>2380.0763799743258</v>
@@ -2025,7 +2025,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B13" s="27">
         <v>2213.9499358151479</v>
@@ -2039,7 +2039,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B14" s="27">
         <v>1454.1219512195125</v>
@@ -2053,7 +2053,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B15" s="27">
         <v>1219.9409499358151</v>
@@ -2067,7 +2067,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B16" s="27">
         <v>2831.4820282413357</v>
@@ -2081,7 +2081,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B17" s="27">
         <v>1814.3299101412067</v>
@@ -2095,7 +2095,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B18" s="27">
         <v>2145.4370988446726</v>
@@ -2109,7 +2109,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B19" s="27">
         <v>1326.7201540436456</v>
@@ -2123,7 +2123,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B20" s="27">
         <v>1345.509627727856</v>
@@ -2137,7 +2137,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B21" s="27">
         <v>2250.3831835686779</v>
@@ -2151,7 +2151,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B22" s="27">
         <v>1823.4955070603337</v>
@@ -2165,7 +2165,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B23" s="27">
         <v>1878.9473684210525</v>
@@ -2179,7 +2179,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B24" s="27">
         <v>3683.1951219512202</v>
@@ -2193,7 +2193,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B25" s="27">
         <v>1503.3870346598203</v>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B26" s="27">
         <v>1153.2612323491655</v>
@@ -2221,7 +2221,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B27" s="27">
         <v>1063.2092426187419</v>
@@ -2235,7 +2235,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B28" s="27">
         <v>1184.1951219512196</v>
@@ -2249,7 +2249,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B29" s="27">
         <v>1833.1193838254173</v>
@@ -2263,7 +2263,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B30" s="27">
         <v>1615.8947368421052</v>
@@ -2277,7 +2277,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B31" s="27">
         <v>3074.5994865211815</v>
@@ -2291,7 +2291,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B32" s="27">
         <v>2291.3992297817717</v>
@@ -2343,7 +2343,7 @@
         <v>57</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
